--- a/document/通讯协议定义.xlsx
+++ b/document/通讯协议定义.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="242" yWindow="109" windowWidth="14799" windowHeight="8011"/>
   </bookViews>
   <sheets>
-    <sheet name="通讯协议相关" sheetId="1" r:id="rId1"/>
+    <sheet name="UART通讯协议相关" sheetId="1" r:id="rId1"/>
     <sheet name="内部寄存器" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -203,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5a 01 00 07 02 00 00 00 02 01 01 FF FF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REG 0x0002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,10 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n(范围0~1024)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ACK(1Byte）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,10 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据长度 (2Byte，高位在前)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>循环冗余校验(CRC)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -443,10 +431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cmd(1)+reg(2)+size(2)+DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,10 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cmd+size(2)+data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,7 +455,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打开LED:5a 01 32 23 00 07 02 00 00 00 03 03 00 01 FF FF</t>
+    <t>示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据长度   (2Byte，高位在前)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd(1)+size(2)+data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd(1)+reg(2)+size(2)+data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n          (范围0~1024)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开LED:5a 01 32 23 00 08 02 00 00 00 03 03 00 01 FF FF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +528,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -627,11 +627,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -678,8 +704,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -688,15 +738,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1002,27 +1043,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="3" customWidth="1"/>
-    <col min="2" max="3" width="13.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="13.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="13" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="2"/>
+    <col min="6" max="6" width="15.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -1032,18 +1073,18 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:6" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="15" customFormat="1" ht="29.05" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>9</v>
@@ -1052,15 +1093,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="15" customFormat="1" ht="29.05" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>4</v>
@@ -1069,107 +1110,112 @@
         <v>5</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29.05" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B9" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="C9" s="20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B10" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="C10" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+      <c r="B11" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C11" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="B12" s="13" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+      <c r="C12" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="19" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="19" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1178,44 +1224,44 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" s="15" customFormat="1" ht="29.05" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" s="15" customFormat="1" ht="29.05" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>5</v>
@@ -1224,50 +1270,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A16:F16"/>
+  <mergeCells count="7">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1283,18 +1334,18 @@
       <selection activeCell="B18" sqref="B18:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.25" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.875" style="1"/>
-    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="1" max="2" width="18.21875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1353,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -1310,23 +1361,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="7">
         <v>7</v>
@@ -1353,17 +1404,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="11" t="s">
         <v>20</v>
       </c>
@@ -1374,65 +1425,65 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
+      <c r="B8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="32.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="8">
         <v>7</v>
@@ -1459,68 +1510,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="7">
         <v>7</v>
@@ -1547,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -1566,7 +1617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="25.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
@@ -1585,7 +1636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
@@ -1604,23 +1655,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="8">
         <v>7</v>
@@ -1645,56 +1696,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
+      <c r="B26" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="8" t="s">
         <v>46</v>
       </c>
@@ -1702,23 +1753,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="7">
         <v>7</v>
@@ -1745,66 +1796,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
-    </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19"/>
-    </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:9" ht="32.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="22"/>
-    </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="7">
         <v>7</v>
@@ -1831,66 +1882,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="19"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="19"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="19"/>
-    </row>
-    <row r="42" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="27"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:9" ht="32.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="22"/>
-    </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="7">
         <v>7</v>
@@ -1917,66 +1968,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="19"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="27"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="19"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="27"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="19"/>
-    </row>
-    <row r="48" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="27"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:9" ht="32.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="22"/>
-    </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="24"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="7">
         <v>7</v>
@@ -2003,64 +2054,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="19"/>
-    </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="27"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="19"/>
-    </row>
-    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="25"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="27"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="19"/>
-    </row>
-    <row r="54" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="25"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="27"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:9" ht="32.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="22"/>
-    </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="24"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="7">
         <v>7</v>
@@ -2087,64 +2138,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="19"/>
-    </row>
-    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="27"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="19"/>
-    </row>
-    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="27"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="19"/>
-    </row>
-    <row r="60" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="25"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="27"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:9" ht="32.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="22"/>
-    </row>
-    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="24"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="7">
         <v>7</v>
@@ -2171,64 +2222,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="19"/>
-    </row>
-    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="27"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="19"/>
-    </row>
-    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="25"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="27"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="19"/>
-    </row>
-    <row r="66" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="25"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="27"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:9" ht="32.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="22"/>
-    </row>
-    <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="24"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="7">
         <v>7</v>
@@ -2255,64 +2306,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="19"/>
-    </row>
-    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="27"/>
+    </row>
+    <row r="70" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="19"/>
-    </row>
-    <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="25"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="27"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="19"/>
-    </row>
-    <row r="72" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="25"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="27"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:9" ht="32.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="22"/>
-    </row>
-    <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="24"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="7">
         <v>7</v>
@@ -2339,64 +2390,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="19"/>
-    </row>
-    <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="27"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="19"/>
-    </row>
-    <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="25"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="27"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="19"/>
-    </row>
-    <row r="78" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="25"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="27"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:9" ht="32.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="22"/>
-    </row>
-    <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="24"/>
+    </row>
+    <row r="80" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="7">
         <v>7</v>
@@ -2423,64 +2474,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="19"/>
-    </row>
-    <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="27"/>
+    </row>
+    <row r="82" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="19"/>
-    </row>
-    <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="25"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="27"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="19"/>
-    </row>
-    <row r="84" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="25"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="27"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:9" ht="32.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B85" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="22"/>
-    </row>
-    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="24"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="7">
         <v>7</v>
@@ -2507,64 +2558,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="19"/>
-    </row>
-    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="27"/>
+    </row>
+    <row r="88" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="19"/>
-    </row>
-    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="25"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="27"/>
+    </row>
+    <row r="89" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="19"/>
-    </row>
-    <row r="90" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="25"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="27"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:9" ht="32.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B91" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B91" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="22"/>
-    </row>
-    <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="24"/>
+    </row>
+    <row r="92" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="7">
         <v>7</v>
@@ -2591,64 +2642,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="19"/>
-    </row>
-    <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="27"/>
+    </row>
+    <row r="94" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="19"/>
-    </row>
-    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="25"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="27"/>
+    </row>
+    <row r="95" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="19"/>
-    </row>
-    <row r="96" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="25"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="27"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:9" ht="32.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B97" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
-      <c r="I97" s="22"/>
-    </row>
-    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="24"/>
+    </row>
+    <row r="98" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="7">
         <v>7</v>
@@ -2675,49 +2726,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="19"/>
-    </row>
-    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="27"/>
+    </row>
+    <row r="100" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="19"/>
-    </row>
-    <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="25"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="27"/>
+    </row>
+    <row r="101" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B101" s="17"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="19"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="B95:I95"/>
+    <mergeCell ref="B97:I97"/>
+    <mergeCell ref="B99:I99"/>
+    <mergeCell ref="B100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I75"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B89:I89"/>
+    <mergeCell ref="B91:I91"/>
+    <mergeCell ref="B93:I93"/>
+    <mergeCell ref="B94:I94"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B81:I81"/>
+    <mergeCell ref="B82:I82"/>
+    <mergeCell ref="B83:I83"/>
+    <mergeCell ref="B85:I85"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B43:I43"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
@@ -2732,53 +2830,6 @@
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B89:I89"/>
-    <mergeCell ref="B91:I91"/>
-    <mergeCell ref="B93:I93"/>
-    <mergeCell ref="B94:I94"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="B79:I79"/>
-    <mergeCell ref="B81:I81"/>
-    <mergeCell ref="B82:I82"/>
-    <mergeCell ref="B83:I83"/>
-    <mergeCell ref="B85:I85"/>
-    <mergeCell ref="B87:I87"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I75"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B95:I95"/>
-    <mergeCell ref="B97:I97"/>
-    <mergeCell ref="B99:I99"/>
-    <mergeCell ref="B100:I100"/>
-    <mergeCell ref="B101:I101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/通讯协议定义.xlsx
+++ b/document/通讯协议定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="242" yWindow="109" windowWidth="14799" windowHeight="8011" activeTab="2"/>
+    <workbookView xWindow="242" yWindow="109" windowWidth="14799" windowHeight="8011"/>
   </bookViews>
   <sheets>
     <sheet name="UART通讯协议相关" sheetId="1" r:id="rId1"/>
@@ -376,107 +376,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>REG 0x0040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO模块管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG 0x0048~0x0049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG 0x004A~0x004B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG 0x0041~0x0043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG 0x0044~0x0045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG 0x0046~0x0047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光传感器模块(als数据 2Byte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外LED距离(ia数据 2Byte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接近距离传感器(ps数据 2Byte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG 0x004C~0x004F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG 0x0050~0x0053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG 0x0054~0x0057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG 0x0058~0x005B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG 0x005C~0x005F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG 0x0060~0x0063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG 0x0064~0x0067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG 0x0068~0x006B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG 0x006C~0x0071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG 0x0072~0x0073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件复位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:软件复位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>打开LED:5a 01 32 23 00 08 02 00 00 00 03 03 00 01 FF FF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG 0x0040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPIO模块管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG 0x0048~0x0049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG 0x004A~0x004B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG 0x0041~0x0043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG 0x0044~0x0045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG 0x0046~0x0047</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光传感器模块(als数据 2Byte)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红外LED距离(ia数据 2Byte)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接近距离传感器(ps数据 2Byte)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG 0x004C~0x004F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG 0x0050~0x0053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG 0x0054~0x0057</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG 0x0058~0x005B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG 0x005C~0x005F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG 0x0060~0x0063</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG 0x0064~0x0067</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG 0x0068~0x006B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG 0x006C~0x0071</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG 0x0072~0x0073</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件复位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:软件复位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,6 +755,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -788,6 +791,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -795,18 +807,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -1194,10 +1194,10 @@
       <c r="B8" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1207,10 +1207,10 @@
       <c r="B9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,10 +1220,10 @@
       <c r="B10" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1233,10 +1233,10 @@
       <c r="B11" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="20.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1246,10 +1246,10 @@
       <c r="B12" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1266,8 +1266,8 @@
       <c r="B14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1275,12 +1275,12 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="A17" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="19" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
@@ -1435,16 +1435,16 @@
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -1483,8 +1483,8 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="40" t="s">
-        <v>114</v>
+      <c r="F7" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>45</v>
@@ -1506,8 +1506,8 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="40" t="s">
-        <v>115</v>
+      <c r="F8" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>43</v>
@@ -1524,16 +1524,16 @@
       <c r="A10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -1566,47 +1566,47 @@
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="15" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
@@ -1691,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -1709,18 +1709,18 @@
     <row r="1" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
+        <v>90</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
@@ -1753,15 +1753,15 @@
       <c r="A4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="23" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="17" t="s">
@@ -1772,14 +1772,14 @@
       <c r="A5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="17" t="s">
         <v>37</v>
       </c>
@@ -1790,18 +1790,18 @@
     <row r="7" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
@@ -1834,47 +1834,47 @@
       <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="1:9" ht="27.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
+      <c r="B11" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="13" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
+        <v>98</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
@@ -1907,45 +1907,45 @@
       <c r="A16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
     </row>
     <row r="17" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
     </row>
     <row r="19" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
     </row>
     <row r="21" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
@@ -1978,45 +1978,45 @@
       <c r="A22" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
     </row>
     <row r="23" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
     </row>
     <row r="25" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
+        <v>94</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40"/>
     </row>
     <row r="27" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
@@ -2049,46 +2049,46 @@
       <c r="A28" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
     </row>
     <row r="29" spans="1:9" ht="11.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
     </row>
     <row r="30" spans="1:9" ht="11.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:9" ht="11.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
+        <v>95</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
     </row>
     <row r="33" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
@@ -2121,47 +2121,47 @@
       <c r="A34" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="39"/>
+      <c r="B34" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
     </row>
     <row r="35" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="39"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="37"/>
     </row>
     <row r="37" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
     </row>
     <row r="39" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
@@ -2194,27 +2194,27 @@
       <c r="A40" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="37"/>
     </row>
     <row r="41" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="39"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="37"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="22"/>
@@ -2229,18 +2229,18 @@
     <row r="43" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="36"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="40"/>
     </row>
     <row r="45" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
@@ -2273,27 +2273,27 @@
       <c r="A46" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="39"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="37"/>
     </row>
     <row r="47" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="37"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="22"/>
@@ -2308,18 +2308,18 @@
     <row r="49" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="36"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="40"/>
     </row>
     <row r="51" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
@@ -2352,43 +2352,43 @@
       <c r="A52" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="39"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="37"/>
     </row>
     <row r="53" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="39"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="37"/>
     </row>
     <row r="55" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="36"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="40"/>
     </row>
     <row r="57" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
@@ -2421,43 +2421,43 @@
       <c r="A58" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="37"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="39"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="37"/>
     </row>
     <row r="59" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="39"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="37"/>
     </row>
     <row r="61" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="36"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="40"/>
     </row>
     <row r="63" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
@@ -2490,43 +2490,43 @@
       <c r="A64" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="39"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="37"/>
     </row>
     <row r="65" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="37"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="39"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="37"/>
     </row>
     <row r="67" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B68" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="36"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="40"/>
     </row>
     <row r="69" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
@@ -2559,43 +2559,43 @@
       <c r="A70" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="37"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="39"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="37"/>
     </row>
     <row r="71" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="37"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="39"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="37"/>
     </row>
     <row r="73" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B74" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="36"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="40"/>
     </row>
     <row r="75" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21"/>
@@ -2628,43 +2628,43 @@
       <c r="A76" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="37"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="39"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="37"/>
     </row>
     <row r="77" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="37"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="39"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="37"/>
     </row>
     <row r="79" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B80" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="36"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="40"/>
     </row>
     <row r="81" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
@@ -2697,43 +2697,43 @@
       <c r="A82" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="37"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="39"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="37"/>
     </row>
     <row r="83" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="37"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="39"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="37"/>
     </row>
     <row r="85" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B86" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="36"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="40"/>
     </row>
     <row r="87" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -2766,43 +2766,43 @@
       <c r="A88" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="37"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="39"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="37"/>
     </row>
     <row r="89" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="37"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="39"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="37"/>
     </row>
     <row r="91" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B92" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="36"/>
+        <v>112</v>
+      </c>
+      <c r="B92" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="40"/>
     </row>
     <row r="93" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21"/>
@@ -2835,52 +2835,48 @@
       <c r="A94" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="39"/>
+      <c r="B94" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="37"/>
     </row>
     <row r="95" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="37" t="s">
+      <c r="B95" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="39"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B92:I92"/>
+    <mergeCell ref="B94:I94"/>
+    <mergeCell ref="B95:I95"/>
+    <mergeCell ref="B89:I89"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B82:I82"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="B59:I59"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
@@ -2897,20 +2893,24 @@
     <mergeCell ref="B77:I77"/>
     <mergeCell ref="B62:I62"/>
     <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B82:I82"/>
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B56:I56"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B92:I92"/>
-    <mergeCell ref="B94:I94"/>
-    <mergeCell ref="B95:I95"/>
-    <mergeCell ref="B89:I89"/>
-    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B14:I14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/通讯协议定义.xlsx
+++ b/document/通讯协议定义.xlsx
@@ -791,6 +791,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -798,15 +807,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1112,7 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1127,12 +1127,12 @@
     <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:6" s="15" customFormat="1" ht="29.05" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="15" customFormat="1" ht="29.05" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="15" customFormat="1" ht="29.05" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="29.05" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
@@ -1182,12 +1182,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29.05" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="29.05" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>71</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="D8" s="25"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>74</v>
       </c>
@@ -1213,7 +1213,7 @@
       <c r="D9" s="28"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>77</v>
       </c>
@@ -1226,7 +1226,7 @@
       <c r="D10" s="28"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>79</v>
       </c>
@@ -1239,7 +1239,7 @@
       <c r="D11" s="28"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:6" ht="20.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="20.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>81</v>
       </c>
@@ -1252,14 +1252,14 @@
       <c r="D12" s="28"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>83</v>
       </c>
@@ -1269,7 +1269,12 @@
       <c r="C14" s="24"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>85</v>
       </c>
@@ -1711,16 +1716,16 @@
       <c r="A2" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
@@ -1753,14 +1758,14 @@
       <c r="A4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="23" t="s">
         <v>40</v>
       </c>
@@ -1772,14 +1777,14 @@
       <c r="A5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="17" t="s">
         <v>37</v>
       </c>
@@ -1792,16 +1797,16 @@
       <c r="A8" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
@@ -1834,47 +1839,47 @@
       <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:9" ht="27.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="13" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
@@ -1907,45 +1912,45 @@
       <c r="A16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
     </row>
     <row r="19" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
     </row>
     <row r="21" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
@@ -1978,45 +1983,45 @@
       <c r="A22" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
     </row>
     <row r="23" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
     </row>
     <row r="25" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="40"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
     </row>
     <row r="27" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
@@ -2049,29 +2054,29 @@
       <c r="A28" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="37"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40"/>
     </row>
     <row r="29" spans="1:9" ht="11.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
     </row>
     <row r="30" spans="1:9" ht="11.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:9" ht="11.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -2079,16 +2084,16 @@
       <c r="A32" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="40"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="37"/>
     </row>
     <row r="33" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
@@ -2121,47 +2126,47 @@
       <c r="A34" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="37"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="40"/>
     </row>
     <row r="35" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="37"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="40"/>
     </row>
     <row r="37" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="40"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
@@ -2194,27 +2199,27 @@
       <c r="A40" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40"/>
     </row>
     <row r="41" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="40"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="22"/>
@@ -2231,16 +2236,16 @@
       <c r="A44" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="40"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="37"/>
     </row>
     <row r="45" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
@@ -2273,27 +2278,27 @@
       <c r="A46" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="37"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="40"/>
     </row>
     <row r="47" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="37"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="40"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="22"/>
@@ -2310,16 +2315,16 @@
       <c r="A50" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="40"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="37"/>
     </row>
     <row r="51" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
@@ -2352,43 +2357,43 @@
       <c r="A52" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="37"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="40"/>
     </row>
     <row r="53" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="40"/>
     </row>
     <row r="55" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="40"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="37"/>
     </row>
     <row r="57" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
@@ -2421,43 +2426,43 @@
       <c r="A58" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="37"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="40"/>
     </row>
     <row r="59" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="37"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="40"/>
     </row>
     <row r="61" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="40"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="37"/>
     </row>
     <row r="63" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
@@ -2490,43 +2495,43 @@
       <c r="A64" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="37"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="40"/>
     </row>
     <row r="65" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="37"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="40"/>
     </row>
     <row r="67" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="40"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="37"/>
     </row>
     <row r="69" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
@@ -2559,43 +2564,43 @@
       <c r="A70" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="37"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="40"/>
     </row>
     <row r="71" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="37"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="40"/>
     </row>
     <row r="73" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="40"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="37"/>
     </row>
     <row r="75" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21"/>
@@ -2628,43 +2633,43 @@
       <c r="A76" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="35"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="37"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="40"/>
     </row>
     <row r="77" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="35"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="37"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="40"/>
     </row>
     <row r="79" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="38" t="s">
+      <c r="B80" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="40"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="37"/>
     </row>
     <row r="81" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
@@ -2697,43 +2702,43 @@
       <c r="A82" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="35"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="37"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="40"/>
     </row>
     <row r="83" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="35"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="37"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="40"/>
     </row>
     <row r="85" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="38" t="s">
+      <c r="B86" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="40"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="37"/>
     </row>
     <row r="87" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -2766,43 +2771,43 @@
       <c r="A88" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="35"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="37"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="40"/>
     </row>
     <row r="89" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="35"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="37"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="40"/>
     </row>
     <row r="91" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="40"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="37"/>
     </row>
     <row r="93" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21"/>
@@ -2835,48 +2840,52 @@
       <c r="A94" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="35" t="s">
+      <c r="B94" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="37"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="40"/>
     </row>
     <row r="95" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="35" t="s">
+      <c r="B95" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="37"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B92:I92"/>
-    <mergeCell ref="B94:I94"/>
-    <mergeCell ref="B95:I95"/>
-    <mergeCell ref="B89:I89"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B82:I82"/>
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B56:I56"/>
-    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
@@ -2893,24 +2902,20 @@
     <mergeCell ref="B77:I77"/>
     <mergeCell ref="B62:I62"/>
     <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B82:I82"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B92:I92"/>
+    <mergeCell ref="B94:I94"/>
+    <mergeCell ref="B95:I95"/>
+    <mergeCell ref="B89:I89"/>
+    <mergeCell ref="B64:I64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/通讯协议定义.xlsx
+++ b/document/通讯协议定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="242" yWindow="109" windowWidth="14799" windowHeight="8011"/>
+    <workbookView xWindow="242" yWindow="109" windowWidth="14799" windowHeight="8011" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UART通讯协议相关" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="119">
   <si>
     <t>数据通讯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,6 +477,18 @@
   </si>
   <si>
     <t>打开LED:5a 01 32 23 00 08 02 00 00 00 03 03 00 01 FF FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串口信息配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0:执行设置完毕               1:执行设置 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络信息配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,44 +699,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -773,15 +755,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -791,6 +764,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -800,14 +782,35 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1112,275 +1115,275 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="13.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="19.77734375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="13.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="29.05" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="29.05" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="29.05" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="29.05" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.05" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="20.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="16"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="16"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-    </row>
-    <row r="19" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" s="15" customFormat="1" ht="29.05" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="29.05" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="15" customFormat="1" ht="29.05" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="29.05" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1404,287 +1407,301 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.21875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="18.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="28"/>
+    <col min="4" max="4" width="21.5546875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="28" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="28" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34">
         <v>7</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="34">
         <v>6</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="34">
         <v>5</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="34">
         <v>4</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="35">
         <v>3</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="34">
         <v>2</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="34">
         <v>1</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="23" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:9" ht="56.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="23" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="37" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34">
         <v>7</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="34">
         <v>6</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="34">
         <v>5</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="34">
         <v>3</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="34">
         <v>2</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="34">
         <v>1</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="15" spans="1:9" ht="15.15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34">
         <v>7</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="34">
         <v>6</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="34">
         <v>5</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="34">
         <v>4</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="34">
         <v>3</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="34">
         <v>2</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="34">
         <v>1</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="34" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1702,1190 +1719,1186 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="18.21875" style="19" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="19"/>
-    <col min="6" max="6" width="15.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="19"/>
+    <col min="1" max="2" width="18.21875" style="9" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" style="9"/>
+    <col min="6" max="6" width="15.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="17">
+      <c r="A3" s="11"/>
+      <c r="B3" s="7">
         <v>7</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="7">
         <v>6</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="7">
         <v>5</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="7">
         <v>4</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="7">
         <v>3</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="7">
         <v>2</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="21.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="21.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="23" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="29.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:9" s="8" customFormat="1" ht="29.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="17" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="17">
+      <c r="A9" s="11"/>
+      <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="7">
         <v>6</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="7">
         <v>5</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="7">
         <v>4</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="7">
         <v>3</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="7">
         <v>2</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="21.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" ht="27.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="17">
+      <c r="A15" s="11"/>
+      <c r="B15" s="7">
         <v>7</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="7">
         <v>6</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="7">
         <v>5</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="7">
         <v>4</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="7">
         <v>3</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="7">
         <v>2</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="7">
         <v>1</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="17">
+      <c r="A21" s="11"/>
+      <c r="B21" s="7">
         <v>7</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="7">
         <v>6</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="7">
         <v>5</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="7">
         <v>4</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="7">
         <v>3</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="7">
         <v>2</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="7">
         <v>1</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="11.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="40"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="37"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="17">
+      <c r="A27" s="11"/>
+      <c r="B27" s="7">
         <v>7</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="7">
         <v>6</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="7">
         <v>5</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="7">
         <v>4</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="7">
         <v>3</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="7">
         <v>2</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="7">
         <v>1</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="11.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" ht="11.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:9" ht="11.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="37"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="17">
+      <c r="A33" s="11"/>
+      <c r="B33" s="7">
         <v>7</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="7">
         <v>6</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="7">
         <v>5</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="7">
         <v>4</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="7">
         <v>3</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="7">
         <v>2</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="7">
         <v>1</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="40"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="40"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="37" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="27"/>
     </row>
     <row r="39" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="17">
+      <c r="A39" s="11"/>
+      <c r="B39" s="7">
         <v>7</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="7">
         <v>6</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="7">
         <v>5</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="7">
         <v>4</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="7">
         <v>3</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="7">
         <v>2</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="7">
         <v>1</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="40"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="37"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="27"/>
     </row>
     <row r="45" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="17">
+      <c r="A45" s="11"/>
+      <c r="B45" s="7">
         <v>7</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="7">
         <v>6</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="7">
         <v>5</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="7">
         <v>4</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="7">
         <v>3</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="7">
         <v>2</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="7">
         <v>1</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="40"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="40"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="24"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="37"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="27"/>
     </row>
     <row r="51" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="17">
+      <c r="A51" s="11"/>
+      <c r="B51" s="7">
         <v>7</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="7">
         <v>6</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="7">
         <v>5</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="7">
         <v>4</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="7">
         <v>3</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="7">
         <v>2</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="7">
         <v>1</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="40"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="24"/>
     </row>
     <row r="53" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="40"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="24"/>
     </row>
     <row r="55" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="37"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="27"/>
     </row>
     <row r="57" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="17">
+      <c r="A57" s="11"/>
+      <c r="B57" s="7">
         <v>7</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="7">
         <v>6</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="7">
         <v>5</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="7">
         <v>4</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="7">
         <v>3</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="7">
         <v>2</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="7">
         <v>1</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="40"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="24"/>
     </row>
     <row r="59" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="40"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="24"/>
     </row>
     <row r="61" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="37"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="27"/>
     </row>
     <row r="63" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="17">
+      <c r="A63" s="11"/>
+      <c r="B63" s="7">
         <v>7</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="7">
         <v>6</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="7">
         <v>5</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="7">
         <v>4</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="7">
         <v>3</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="7">
         <v>2</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H63" s="7">
         <v>1</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="40"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="24"/>
     </row>
     <row r="65" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="40"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="24"/>
     </row>
     <row r="67" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="37"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="27"/>
     </row>
     <row r="69" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="17">
+      <c r="A69" s="11"/>
+      <c r="B69" s="7">
         <v>7</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="7">
         <v>6</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="7">
         <v>5</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="7">
         <v>4</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="7">
         <v>3</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G69" s="7">
         <v>2</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="7">
         <v>1</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="40"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="24"/>
     </row>
     <row r="71" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="40"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="24"/>
     </row>
     <row r="73" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="37"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="27"/>
     </row>
     <row r="75" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="17">
+      <c r="A75" s="11"/>
+      <c r="B75" s="7">
         <v>7</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C75" s="7">
         <v>6</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D75" s="7">
         <v>5</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="7">
         <v>4</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="7">
         <v>3</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G75" s="7">
         <v>2</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H75" s="7">
         <v>1</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I75" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="38"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="40"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="24"/>
     </row>
     <row r="77" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="38"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="40"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="24"/>
     </row>
     <row r="79" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="37"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="27"/>
     </row>
     <row r="81" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="17">
+      <c r="A81" s="11"/>
+      <c r="B81" s="7">
         <v>7</v>
       </c>
-      <c r="C81" s="17">
+      <c r="C81" s="7">
         <v>6</v>
       </c>
-      <c r="D81" s="17">
+      <c r="D81" s="7">
         <v>5</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E81" s="7">
         <v>4</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F81" s="7">
         <v>3</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G81" s="7">
         <v>2</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H81" s="7">
         <v>1</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I81" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="38"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="40"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="24"/>
     </row>
     <row r="83" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="38"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="40"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="24"/>
     </row>
     <row r="85" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="35" t="s">
+      <c r="B86" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="37"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="27"/>
     </row>
     <row r="87" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="17">
+      <c r="A87" s="11"/>
+      <c r="B87" s="7">
         <v>7</v>
       </c>
-      <c r="C87" s="17">
+      <c r="C87" s="7">
         <v>6</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D87" s="7">
         <v>5</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="7">
         <v>4</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F87" s="7">
         <v>3</v>
       </c>
-      <c r="G87" s="17">
+      <c r="G87" s="7">
         <v>2</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H87" s="7">
         <v>1</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I87" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="38"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="40"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="24"/>
     </row>
     <row r="89" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="38"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="40"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="24"/>
     </row>
     <row r="91" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="37"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="27"/>
     </row>
     <row r="93" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="21"/>
-      <c r="B93" s="17">
+      <c r="A93" s="11"/>
+      <c r="B93" s="7">
         <v>7</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C93" s="7">
         <v>6</v>
       </c>
-      <c r="D93" s="17">
+      <c r="D93" s="7">
         <v>5</v>
       </c>
-      <c r="E93" s="17">
+      <c r="E93" s="7">
         <v>4</v>
       </c>
-      <c r="F93" s="17">
+      <c r="F93" s="7">
         <v>3</v>
       </c>
-      <c r="G93" s="17">
+      <c r="G93" s="7">
         <v>2</v>
       </c>
-      <c r="H93" s="17">
+      <c r="H93" s="7">
         <v>1</v>
       </c>
-      <c r="I93" s="17">
+      <c r="I93" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="38" t="s">
+      <c r="B94" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="40"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="24"/>
     </row>
     <row r="95" spans="1:9" ht="12.7" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="21" t="s">
+      <c r="A95" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="B95" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="40"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B92:I92"/>
+    <mergeCell ref="B94:I94"/>
+    <mergeCell ref="B95:I95"/>
+    <mergeCell ref="B89:I89"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B82:I82"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="B59:I59"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
@@ -2902,20 +2915,24 @@
     <mergeCell ref="B77:I77"/>
     <mergeCell ref="B62:I62"/>
     <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B82:I82"/>
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B56:I56"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B92:I92"/>
-    <mergeCell ref="B94:I94"/>
-    <mergeCell ref="B95:I95"/>
-    <mergeCell ref="B89:I89"/>
-    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B14:I14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
